--- a/dashboard/dim-vendedor.xlsx
+++ b/dashboard/dim-vendedor.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RM552628.DIM_VENDEDOR" r:id="rId3" sheetId="1"/>
+    <sheet name="RM553315.DIM_VENDEDOR" r:id="rId3" sheetId="1"/>
     <sheet name="SQL" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
@@ -18,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm AM/PM"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -52,11 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -66,7 +71,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -93,7 +98,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leandro Moraes</t>
+          <t>Elias Pinto</t>
         </is>
       </c>
     </row>
@@ -103,7 +108,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ClÃ¡udio Xavier</t>
+          <t>Pedro Siqueira</t>
         </is>
       </c>
     </row>
@@ -113,7 +118,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karine Campos</t>
+          <t>Sandra Moraes</t>
         </is>
       </c>
     </row>
@@ -123,7 +128,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nelson Moraes</t>
+          <t>Tiago Campos</t>
         </is>
       </c>
     </row>
@@ -133,7 +138,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DÃ©bora Rocha</t>
+          <t>Valeria Campos</t>
         </is>
       </c>
     </row>
@@ -143,7 +148,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roberto Duarte</t>
+          <t>Roberto Barros</t>
         </is>
       </c>
     </row>
@@ -153,7 +158,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabela Lopes</t>
+          <t>Joao Siqueira</t>
         </is>
       </c>
     </row>
@@ -163,7 +168,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JoÃ£o GonÃ§alves</t>
+          <t>Leandro Hernandes</t>
         </is>
       </c>
     </row>
@@ -173,7 +178,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Zanetti</t>
+          <t>Valeria Teixeira</t>
         </is>
       </c>
     </row>
@@ -193,7 +198,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Beatriz Pinto</t>
+          <t>Quiteria Alves</t>
         </is>
       </c>
     </row>
@@ -203,7 +208,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Teixeira</t>
+          <t>Nelson Pinto</t>
         </is>
       </c>
     </row>
@@ -213,7 +218,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Freitas</t>
+          <t>Leandro Siqueira</t>
         </is>
       </c>
     </row>
@@ -223,7 +228,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Isabela Moraes</t>
+          <t>Elias Hernandes</t>
         </is>
       </c>
     </row>
@@ -233,7 +238,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Karine Xavier</t>
+          <t>Roberto Farias</t>
         </is>
       </c>
     </row>
@@ -243,7 +248,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beatriz Castro</t>
+          <t>Quiteria Pinto</t>
         </is>
       </c>
     </row>
@@ -253,7 +258,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ValÃ©ria Nascimento</t>
+          <t>Olga Farias</t>
         </is>
       </c>
     </row>
@@ -263,7 +268,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Roberto Moraes</t>
+          <t>Leandro Campos</t>
         </is>
       </c>
     </row>
@@ -273,7 +278,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pedro Barros</t>
+          <t>Roberto Brito</t>
         </is>
       </c>
     </row>
@@ -283,7 +288,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nelson GonÃ§alves</t>
+          <t>Fatima Pinto</t>
         </is>
       </c>
     </row>
@@ -293,7 +298,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ClÃ¡udio GonÃ§alves</t>
+          <t>Roberto Duarte</t>
         </is>
       </c>
     </row>
@@ -303,7 +308,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pedro Campos</t>
+          <t>Nelson Freitas</t>
         </is>
       </c>
     </row>
@@ -313,7 +318,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Olga Moraes</t>
+          <t>Nelson Siqueira</t>
         </is>
       </c>
     </row>
@@ -323,7 +328,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Roberto Campos</t>
+          <t>Nelson Nascimento</t>
         </is>
       </c>
     </row>
@@ -333,7 +338,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Karine Barros</t>
+          <t>Monica Freitas</t>
         </is>
       </c>
     </row>
@@ -343,7 +348,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ClÃ¡udio Rocha</t>
+          <t>Nelson Duarte</t>
         </is>
       </c>
     </row>
@@ -353,7 +358,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Olga Duarte</t>
+          <t>Isabela Farias</t>
         </is>
       </c>
     </row>
@@ -363,7 +368,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Leandro GonÃ§alves</t>
+          <t>Nelson Xavier</t>
         </is>
       </c>
     </row>
@@ -373,7 +378,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Isabela Nascimento</t>
+          <t>Claudio Castro</t>
         </is>
       </c>
     </row>
@@ -383,7 +388,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Elias Castro</t>
+          <t>Tiago Viana</t>
         </is>
       </c>
     </row>
@@ -393,7 +398,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tiago Teixeira</t>
+          <t>Nelson Viana</t>
         </is>
       </c>
     </row>
@@ -403,7 +408,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gustavo Campos</t>
+          <t>Olga Teixeira</t>
         </is>
       </c>
     </row>
@@ -413,7 +418,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Beatriz Siqueira</t>
+          <t>Isabela Lopes</t>
         </is>
       </c>
     </row>
@@ -423,7 +428,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nelson Barros</t>
+          <t>Debora Farias</t>
         </is>
       </c>
     </row>
@@ -433,7 +438,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JoÃ£o Alves</t>
+          <t>Leandro Xavier</t>
         </is>
       </c>
     </row>
@@ -443,7 +448,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Leandro Castro</t>
+          <t>Roberto Zanetti</t>
         </is>
       </c>
     </row>
@@ -453,7 +458,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Beatriz Campos</t>
+          <t>Roberto Freitas</t>
         </is>
       </c>
     </row>
@@ -463,7 +468,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Olga Viana</t>
+          <t>Karine Lopes</t>
         </is>
       </c>
     </row>
@@ -473,7 +478,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tiago Siqueira</t>
+          <t>Nelson Goncalves</t>
         </is>
       </c>
     </row>
@@ -483,7 +488,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Roberto Farias</t>
+          <t>Andre Campos</t>
         </is>
       </c>
     </row>
@@ -493,7 +498,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AndrÃ© Pinto</t>
+          <t>Nelson Zanetti</t>
         </is>
       </c>
     </row>
@@ -503,7 +508,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AndrÃ© Campos</t>
+          <t>Karine Farias</t>
         </is>
       </c>
     </row>
@@ -513,7 +518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tiago Rocha</t>
+          <t>Joao Lopes</t>
         </is>
       </c>
     </row>
@@ -523,7 +528,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Elias Lopes</t>
+          <t>Fatima Zanetti</t>
         </is>
       </c>
     </row>
@@ -533,7 +538,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ValÃ©ria Alves</t>
+          <t>Debora Nascimento</t>
         </is>
       </c>
     </row>
@@ -543,7 +548,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gustavo Siqueira</t>
+          <t>Roberto Moraes</t>
         </is>
       </c>
     </row>
@@ -553,7 +558,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pedro Castro</t>
+          <t>Nelson Castro</t>
         </is>
       </c>
     </row>
@@ -563,7 +568,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JoÃ£o Duarte</t>
+          <t>Debora Duarte</t>
         </is>
       </c>
     </row>
@@ -573,7 +578,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sandra Hernandes</t>
+          <t>Leandro Xavier</t>
         </is>
       </c>
     </row>
@@ -583,7 +588,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Elias Barros</t>
+          <t>Debora Campos</t>
         </is>
       </c>
     </row>
@@ -593,7 +598,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JoÃ£o Lopes</t>
+          <t>Isabela Moraes</t>
         </is>
       </c>
     </row>
@@ -603,7 +608,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AndrÃ© Rocha</t>
+          <t>Fatima Lopes</t>
         </is>
       </c>
     </row>
@@ -613,7 +618,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Elias Zanetti</t>
+          <t>Valeria Campos</t>
         </is>
       </c>
     </row>
@@ -623,7 +628,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FÃ¡tima Siqueira</t>
+          <t>Monica Alves</t>
         </is>
       </c>
     </row>
@@ -633,7 +638,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Hernandes</t>
+          <t>Karine Siqueira</t>
         </is>
       </c>
     </row>
@@ -643,7 +648,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Leandro Moraes</t>
+          <t>Sandra Viana</t>
         </is>
       </c>
     </row>
@@ -653,7 +658,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AndrÃ© Farias</t>
+          <t>Quiteria Moraes</t>
         </is>
       </c>
     </row>
@@ -663,7 +668,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Beatriz Zanetti</t>
+          <t>Tiago Barros</t>
         </is>
       </c>
     </row>
@@ -673,7 +678,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FÃ¡tima Pinto</t>
+          <t>Beatriz Freitas</t>
         </is>
       </c>
     </row>
@@ -683,7 +688,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Karine Alves</t>
+          <t>Karine Pinto</t>
         </is>
       </c>
     </row>
@@ -693,7 +698,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nelson Freitas</t>
+          <t>Sandra Freitas</t>
         </is>
       </c>
     </row>
@@ -703,7 +708,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Olga Duarte</t>
+          <t>Olga Campos</t>
         </is>
       </c>
     </row>
@@ -713,7 +718,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ValÃ©ria Castro</t>
+          <t>Pedro Alves</t>
         </is>
       </c>
     </row>
@@ -723,7 +728,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Beatriz Freitas</t>
+          <t>Valeria Hernandes</t>
         </is>
       </c>
     </row>
@@ -733,7 +738,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JoÃ£o Brito</t>
+          <t>Pedro Siqueira</t>
         </is>
       </c>
     </row>
@@ -743,7 +748,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Roberto Lopes</t>
+          <t>Leandro Alves</t>
         </is>
       </c>
     </row>
@@ -753,7 +758,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AndrÃ© Zanetti</t>
+          <t>Olga Hernandes</t>
         </is>
       </c>
     </row>
@@ -763,7 +768,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Roberto GonÃ§alves</t>
+          <t>Leandro Rocha</t>
         </is>
       </c>
     </row>
@@ -773,7 +778,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gustavo GonÃ§alves</t>
+          <t>Tiago Barros</t>
         </is>
       </c>
     </row>
@@ -783,7 +788,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pedro Viana</t>
+          <t>Elias Castro</t>
         </is>
       </c>
     </row>
@@ -793,7 +798,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sandra Viana</t>
+          <t>Andre Duarte</t>
         </is>
       </c>
     </row>
@@ -803,7 +808,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Roberto Freitas</t>
+          <t>Monica Castro</t>
         </is>
       </c>
     </row>
@@ -813,7 +818,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FÃ¡tima Moraes</t>
+          <t>Tiago Viana</t>
         </is>
       </c>
     </row>
@@ -823,7 +828,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Karine Freitas</t>
+          <t>Leandro Viana</t>
         </is>
       </c>
     </row>
@@ -833,7 +838,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Karine Brito</t>
+          <t>Sandra Teixeira</t>
         </is>
       </c>
     </row>
@@ -843,7 +848,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Elias Pinto</t>
+          <t>Pedro Lopes</t>
         </is>
       </c>
     </row>
@@ -853,7 +858,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FÃ¡tima Castro</t>
+          <t>Quiteria Zanetti</t>
         </is>
       </c>
     </row>
@@ -863,7 +868,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FÃ¡tima Lopes</t>
+          <t>Elias Barros</t>
         </is>
       </c>
     </row>
@@ -873,7 +878,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Gustavo Barros</t>
+          <t>Karine Goncalves</t>
         </is>
       </c>
     </row>
@@ -883,7 +888,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Leandro Teixeira</t>
+          <t>Pedro Teixeira</t>
         </is>
       </c>
     </row>
@@ -893,7 +898,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Olga Campos</t>
+          <t>Pedro Barros</t>
         </is>
       </c>
     </row>
@@ -903,7 +908,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ValÃ©ria Zanetti</t>
+          <t>Beatriz Duarte</t>
         </is>
       </c>
     </row>
@@ -913,7 +918,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ClÃ¡udio Lopes</t>
+          <t>Valeria Lopes</t>
         </is>
       </c>
     </row>
@@ -923,7 +928,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pedro Lopes</t>
+          <t>Gustavo Teixeira</t>
         </is>
       </c>
     </row>
@@ -933,7 +938,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Leandro Xavier</t>
+          <t>Leandro Duarte</t>
         </is>
       </c>
     </row>
@@ -943,7 +948,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MÃ´nica Campos</t>
+          <t>Valeria Campos</t>
         </is>
       </c>
     </row>
@@ -953,7 +958,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FÃ¡tima Hernandes</t>
+          <t>Claudio Barros</t>
         </is>
       </c>
     </row>
@@ -963,7 +968,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AndrÃ© Castro</t>
+          <t>Karine Xavier</t>
         </is>
       </c>
     </row>
@@ -973,7 +978,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Isabela Duarte</t>
+          <t>Pedro Duarte</t>
         </is>
       </c>
     </row>
@@ -983,7 +988,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DÃ©bora Moraes</t>
+          <t>Roberto Rocha</t>
         </is>
       </c>
     </row>
@@ -993,7 +998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Roberto Hernandes</t>
+          <t>Pedro Viana</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1008,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Leandro Viana</t>
+          <t>Pedro Nascimento</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1018,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Barros</t>
+          <t>Karine Xavier</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1028,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>QuitÃ©ria Hernandes</t>
+          <t>Claudio Duarte</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1038,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tiago Lopes</t>
+          <t>Nelson Goncalves</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1048,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tiago Alves</t>
+          <t>Elias Teixeira</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1058,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JoÃ£o Viana</t>
+          <t>Debora Goncalves</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Leandro Alves</t>
+          <t>Beatriz Alves</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1078,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Beatriz Pinto</t>
+          <t>Monica Brito</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1088,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Isabela Zanetti</t>
+          <t>Nelson Moraes</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1103,7 +1108,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>select COD_VENDEDOR COD_VENDEDOR, NOME_VENDEDOR NOME_VENDEDOR from (select * from "RM552628"."DIM_VENDEDOR")</t>
+          <t>select COD_VENDEDOR COD_VENDEDOR, NOME_VENDEDOR NOME_VENDEDOR from (select * from "RM553315"."DIM_VENDEDOR")</t>
         </is>
       </c>
     </row>
